--- a/temp/Sokatu/Resources/ExportExcel.xlsx
+++ b/temp/Sokatu/Resources/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Tên file ảnh (Đường dẫn\tên batch\tên file ảnh)</t>
   </si>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +478,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,6 +540,66 @@
         <v>18</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4">
+        <v>1</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO1" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/temp/Sokatu/Resources/ExportExcel.xlsx
+++ b/temp/Sokatu/Resources/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Tên file ảnh (Đường dẫn\tên batch\tên file ảnh)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -478,7 +481,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,6 +604,9 @@
       </c>
       <c r="AO1" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Sokatu/Resources/ExportExcel.xlsx
+++ b/temp/Sokatu/Resources/ExportExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11040"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,10 +468,10 @@
   <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
